--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shai drai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shai drai\Desktop\excel2json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B855B5-EE7F-4398-A04A-D535A5618650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A966944A-B771-4BD1-9C4A-B5415F1F0A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5C0793C3-EFF2-41B5-B606-F83272D66A60}"/>
+    <workbookView xWindow="4395" yWindow="4335" windowWidth="21600" windowHeight="12735" xr2:uid="{5C0793C3-EFF2-41B5-B606-F83272D66A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="74">
   <si>
     <t>room</t>
   </si>
@@ -135,16 +135,142 @@
   </si>
   <si>
     <t>drai2</t>
+  </si>
+  <si>
+    <t>shai3</t>
+  </si>
+  <si>
+    <t>drai3</t>
+  </si>
+  <si>
+    <t>shai4</t>
+  </si>
+  <si>
+    <t>drai4</t>
+  </si>
+  <si>
+    <t>shai5</t>
+  </si>
+  <si>
+    <t>drai5</t>
+  </si>
+  <si>
+    <t>shai6</t>
+  </si>
+  <si>
+    <t>drai6</t>
+  </si>
+  <si>
+    <t>shai7</t>
+  </si>
+  <si>
+    <t>drai7</t>
+  </si>
+  <si>
+    <t>shai8</t>
+  </si>
+  <si>
+    <t>drai8</t>
+  </si>
+  <si>
+    <t>shai9</t>
+  </si>
+  <si>
+    <t>drai9</t>
+  </si>
+  <si>
+    <t>shai10</t>
+  </si>
+  <si>
+    <t>drai10</t>
+  </si>
+  <si>
+    <t>shai11</t>
+  </si>
+  <si>
+    <t>drai11</t>
+  </si>
+  <si>
+    <t>shai12</t>
+  </si>
+  <si>
+    <t>drai12</t>
+  </si>
+  <si>
+    <t>shai13</t>
+  </si>
+  <si>
+    <t>drai13</t>
+  </si>
+  <si>
+    <t>shai14</t>
+  </si>
+  <si>
+    <t>drai14</t>
+  </si>
+  <si>
+    <t>shai15</t>
+  </si>
+  <si>
+    <t>drai15</t>
+  </si>
+  <si>
+    <t>shai16</t>
+  </si>
+  <si>
+    <t>drai16</t>
+  </si>
+  <si>
+    <t>shai17</t>
+  </si>
+  <si>
+    <t>drai17</t>
+  </si>
+  <si>
+    <t>shai18</t>
+  </si>
+  <si>
+    <t>drai18</t>
+  </si>
+  <si>
+    <t>shai19</t>
+  </si>
+  <si>
+    <t>drai19</t>
+  </si>
+  <si>
+    <t>shai20</t>
+  </si>
+  <si>
+    <t>drai20</t>
+  </si>
+  <si>
+    <t>shai21</t>
+  </si>
+  <si>
+    <t>drai21</t>
+  </si>
+  <si>
+    <t>shai22</t>
+  </si>
+  <si>
+    <t>drai22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20F8DE0-D10C-46C6-ACF0-43E6F1DE4CCD}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="N3">
-        <v>6846846451</v>
+        <v>15154484</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -712,7 +838,1428 @@
         <v>31</v>
       </c>
     </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>987678789</v>
+      </c>
+      <c r="H4">
+        <v>3454556554</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>15154485</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2012</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>987678789</v>
+      </c>
+      <c r="H5">
+        <v>3454556554</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>15154486</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>987678789</v>
+      </c>
+      <c r="H6">
+        <v>3454556554</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>15154487</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>987678789</v>
+      </c>
+      <c r="H7">
+        <v>3454556554</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>15154488</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>987678789</v>
+      </c>
+      <c r="H8">
+        <v>3454556554</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>15154489</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>987678789</v>
+      </c>
+      <c r="H9">
+        <v>3454556554</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>15154490</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9">
+        <v>31</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>987678789</v>
+      </c>
+      <c r="H10">
+        <v>3454556554</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>15154491</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>987678789</v>
+      </c>
+      <c r="H11">
+        <v>3454556554</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>15154492</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>987678789</v>
+      </c>
+      <c r="H12">
+        <v>3454556554</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>15154493</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12">
+        <v>34</v>
+      </c>
+      <c r="S12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>987678789</v>
+      </c>
+      <c r="H13">
+        <v>3454556554</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>15154494</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>987678789</v>
+      </c>
+      <c r="H14">
+        <v>3454556554</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>15154495</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>987678789</v>
+      </c>
+      <c r="H15">
+        <v>3454556554</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>15154496</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15">
+        <v>37</v>
+      </c>
+      <c r="S15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>987678789</v>
+      </c>
+      <c r="H16">
+        <v>3454556554</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>15154497</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16">
+        <v>38</v>
+      </c>
+      <c r="S16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>987678789</v>
+      </c>
+      <c r="H17">
+        <v>3454556554</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17">
+        <v>15154498</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17">
+        <v>39</v>
+      </c>
+      <c r="S17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2012</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>987678789</v>
+      </c>
+      <c r="H18">
+        <v>3454556554</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18">
+        <v>15154499</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18">
+        <v>40</v>
+      </c>
+      <c r="S18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>987678789</v>
+      </c>
+      <c r="H19">
+        <v>3454556554</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19">
+        <v>15154500</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19">
+        <v>41</v>
+      </c>
+      <c r="S19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" t="s">
+        <v>65</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>987678789</v>
+      </c>
+      <c r="H20">
+        <v>3454556554</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>15154501</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20">
+        <v>42</v>
+      </c>
+      <c r="S20" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" t="s">
+        <v>67</v>
+      </c>
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2012</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>987678789</v>
+      </c>
+      <c r="H21">
+        <v>3454556554</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>15154502</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21">
+        <v>43</v>
+      </c>
+      <c r="S21" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" t="s">
+        <v>69</v>
+      </c>
+      <c r="U21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2012</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>987678789</v>
+      </c>
+      <c r="H22">
+        <v>3454556554</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>15154503</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22">
+        <v>44</v>
+      </c>
+      <c r="S22" t="s">
+        <v>70</v>
+      </c>
+      <c r="T22" t="s">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>987678789</v>
+      </c>
+      <c r="H23">
+        <v>3454556554</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>15154504</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23">
+        <v>45</v>
+      </c>
+      <c r="S23" t="s">
+        <v>72</v>
+      </c>
+      <c r="T23" t="s">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>